--- a/Excel for Business1.xlsx
+++ b/Excel for Business1.xlsx
@@ -19,27 +19,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">BusinessCategory </t>
   </si>
   <si>
-    <t>Aboriginal and Torres Strait Islander organization</t>
-  </si>
-  <si>
     <t>Aboriginal art gallery</t>
   </si>
   <si>
     <t>Abortion clinic</t>
   </si>
   <si>
-    <t>Abrasives supplier</t>
-  </si>
-  <si>
     <t>Zipcode</t>
   </si>
   <si>
-    <t>Business</t>
+    <t>Abbey</t>
+  </si>
+  <si>
+    <t>Plumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Auto electrical service</t>
+  </si>
+  <si>
+    <t>Automobile storage facility</t>
+  </si>
+  <si>
+    <t>Aviation consultant</t>
+  </si>
+  <si>
+    <t>Aviation training institute</t>
+  </si>
+  <si>
+    <t>Homekill service</t>
+  </si>
+  <si>
+    <t>Homeless service</t>
+  </si>
+  <si>
+    <t>Homeless shelter</t>
+  </si>
+  <si>
+    <t>Homeopath</t>
+  </si>
+  <si>
+    <t>Homeopathic pharmacy</t>
+  </si>
+  <si>
+    <t>Homeowners’ association</t>
+  </si>
+  <si>
+    <t>Honda dealer</t>
+  </si>
+  <si>
+    <t>Honduran restaurant</t>
+  </si>
+  <si>
+    <t>Honey farm</t>
+  </si>
+  <si>
+    <t>Import export company</t>
+  </si>
+  <si>
+    <t>Importer</t>
+  </si>
+  <si>
+    <t>Incense supplier</t>
+  </si>
+  <si>
+    <t>Incineration plant</t>
+  </si>
+  <si>
+    <t>Income protection insurance</t>
+  </si>
+  <si>
+    <t>Income tax help association</t>
+  </si>
+  <si>
+    <t>Indian grocery store</t>
+  </si>
+  <si>
+    <t>Indian Muslim restaurant</t>
+  </si>
+  <si>
+    <t>Indian restaurant</t>
+  </si>
+  <si>
+    <t>Indian sizzler restaurant</t>
   </si>
 </sst>
 </file>
@@ -104,12 +170,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -392,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +478,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -417,15 +489,15 @@
         <v>201301</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>211006</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -433,19 +505,160 @@
         <v>201304</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>744105</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+      <c r="A6" s="3">
+        <v>249196</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>12404</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>249171</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>12808</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>14801</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>12203</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>11507</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>5373</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>627</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
